--- a/invoices_functions/files/invoices/so_invoices6.xlsx
+++ b/invoices_functions/files/invoices/so_invoices6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:A807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6993 +443,5642 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO2926602</t>
+          <t>SO3113662</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO2926526</t>
+          <t>SO3113738</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2940339</t>
+          <t>SO3113762</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO2926858</t>
+          <t>SO3113875</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO2929060</t>
+          <t>SO3118962</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SO2927003</t>
+          <t>SO3113786</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SO2929542</t>
+          <t>SO3113780</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SO2927044</t>
+          <t>SO3115498</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SO2933637</t>
+          <t>SO3113789</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SO2927657</t>
+          <t>SO3113784</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SO2927854</t>
+          <t>SO3113781</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SO2927803</t>
+          <t>SO3113764</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SO2927844</t>
+          <t>SO3113849</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SO2927891</t>
+          <t>SO3113891</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SO2928090</t>
+          <t>SO3113933</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO2935945</t>
+          <t>SO3113859</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO2928141</t>
+          <t>SO3113910</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO2930871</t>
+          <t>SO3119179</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2930949</t>
+          <t>SO3113932</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2928250</t>
+          <t>SO3113939</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO2928338</t>
+          <t>SO3115931</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SO2928493</t>
+          <t>SO3114010</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SO2935576</t>
+          <t>SO3116470</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SO2928545</t>
+          <t>SO3113987</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SO2928718</t>
+          <t>SO3114104</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO2983103</t>
+          <t>SO3114096</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO2928921</t>
+          <t>SO3114033</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO2929022</t>
+          <t>SO3114042</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO2929143</t>
+          <t>SO3114161</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO2929118</t>
+          <t>SO3114254</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO2929466</t>
+          <t>SO3114350</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO2929559</t>
+          <t>SO3114291</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO2929734</t>
+          <t>SO3116217</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO2931073</t>
+          <t>SO3114405</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO2929767</t>
+          <t>SO3114361</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SO2929818</t>
+          <t>SO3114328</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SO2929819</t>
+          <t>SO3128129</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SO2929971</t>
+          <t>SO3114435</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SO2929976</t>
+          <t>SO3120462</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SO2930441</t>
+          <t>SO3114624</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SO2933116</t>
+          <t>SO3114593</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SO2930581</t>
+          <t>SO3114548</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SO2930626</t>
+          <t>SO3115702</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SO2934424</t>
+          <t>SO3114696</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SO2930786</t>
+          <t>SO3114782</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SO2930850</t>
+          <t>SO3114740</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO2930963</t>
+          <t>SO3114762</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO2930939</t>
+          <t>SO3114850</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SO2931054</t>
+          <t>SO3114852</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SO2931093</t>
+          <t>SO3120403</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO2931101</t>
+          <t>SO3116030</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO2931128</t>
+          <t>SO3115074</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO2931197</t>
+          <t>SO3115965</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO2931156</t>
+          <t>SO3115731</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO2931231</t>
+          <t>SO3115237</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO2931242</t>
+          <t>SO3115499</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO2931334</t>
+          <t>SO3115236</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO2931303</t>
+          <t>SO3115194</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO2964523</t>
+          <t>SO3115192</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO2931392</t>
+          <t>SO3115238</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO2931452</t>
+          <t>SO3115292</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO2931421</t>
+          <t>SO3115399</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO2931476</t>
+          <t>SO3115572</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO2931451</t>
+          <t>SO3117611</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO2931410</t>
+          <t>SO3115833</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO2931506</t>
+          <t>SO3115615</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO2931510</t>
+          <t>SO3115655</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO2931541</t>
+          <t>SO3115794</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO2931543</t>
+          <t>SO3115883</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO2931631</t>
+          <t>SO3118701</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO2931606</t>
+          <t>SO3115876</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO2934707</t>
+          <t>SO3115881</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO2931658</t>
+          <t>SO3115875</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO2931750</t>
+          <t>SO3115906</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO2931720</t>
+          <t>SO3115907</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SO2931694</t>
+          <t>SO3115928</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO2931722</t>
+          <t>SO3116065</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO2931721</t>
+          <t>SO3115995</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO2935273</t>
+          <t>SO3116154</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO2933930</t>
+          <t>SO3116046</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO2931770</t>
+          <t>SO3116117</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO2931831</t>
+          <t>SO3116170</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO2931865</t>
+          <t>SO3116169</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO2931881</t>
+          <t>SO3116147</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO2931870</t>
+          <t>SO3116203</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO2931929</t>
+          <t>SO3116167</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO2932124</t>
+          <t>SO3116145</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO2932028</t>
+          <t>SO3116153</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO2931991</t>
+          <t>SO3116253</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO2932027</t>
+          <t>SO3116186</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO2935499</t>
+          <t>SO3116251</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO2932046</t>
+          <t>SO3116191</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO2934705</t>
+          <t>SO3116229</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO2932071</t>
+          <t>SO3123967</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO2932202</t>
+          <t>SO3116228</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO2932237</t>
+          <t>SO3116285</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO2932184</t>
+          <t>SO3119221</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO2932228</t>
+          <t>SO3116324</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO2969328</t>
+          <t>SO3116344</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO2932395</t>
+          <t>SO3116277</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO2952935</t>
+          <t>SO3116287</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO2932427</t>
+          <t>SO3116299</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO2935654</t>
+          <t>SO3116342</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SO2934199</t>
+          <t>SO3116347</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO2932534</t>
+          <t>SO3120758</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO2988234</t>
+          <t>SO3116326</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO2932692</t>
+          <t>SO3116415</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO2932644</t>
+          <t>SO3118973</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO2932632</t>
+          <t>SO3116496</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO2935590</t>
+          <t>SO3116446</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO2932925</t>
+          <t>SO3116453</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO2933521</t>
+          <t>SO3116503</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO2932735</t>
+          <t>SO3116501</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO2932805</t>
+          <t>SO3116485</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO2932751</t>
+          <t>SO3116517</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO2932736</t>
+          <t>SO3148606</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO2932770</t>
+          <t>SO3116632</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO2932818</t>
+          <t>SO3116494</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO2932789</t>
+          <t>SO3125737</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO2932879</t>
+          <t>SO3116570</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO2932916</t>
+          <t>SO3136408</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SO2932824</t>
+          <t>SO3116782</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SO2932875</t>
+          <t>SO3119032</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SO2932940</t>
+          <t>SO3122031</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO2935413</t>
+          <t>SO3116895</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO2932899</t>
+          <t>SO3116971</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO2933092</t>
+          <t>SO3116973</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO2932947</t>
+          <t>SO3116913</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO2932969</t>
+          <t>SO3116937</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO2937703</t>
+          <t>SO3117116</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO2932968</t>
+          <t>SO3116941</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO2933052</t>
+          <t>SO3117064</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO2933084</t>
+          <t>SO3117108</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO2933049</t>
+          <t>SO3117081</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO2933091</t>
+          <t>SO3117285</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO2933118</t>
+          <t>SO3117228</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SO2933139</t>
+          <t>SO3117421</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO2933141</t>
+          <t>SO3117445</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO2933113</t>
+          <t>SO3117456</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO2933170</t>
+          <t>SO3117602</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO2933247</t>
+          <t>SO3117517</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO2933202</t>
+          <t>SO3117553</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO2933174</t>
+          <t>SO3118338</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO2933238</t>
+          <t>SO3117625</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO2933248</t>
+          <t>SO3118793</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO2933262</t>
+          <t>SO3117679</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO2933327</t>
+          <t>SO3117728</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SO2933282</t>
+          <t>SO3117727</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SO2933271</t>
+          <t>SO3126850</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SO2939270</t>
+          <t>SO3117872</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO2933385</t>
+          <t>SO3117983</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO2934555</t>
+          <t>SO3118003</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO2933552</t>
+          <t>SO3117956</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO2933384</t>
+          <t>SO3118001</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO2964085</t>
+          <t>SO3118060</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SO2933477</t>
+          <t>SO3118027</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO2933522</t>
+          <t>SO3118286</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO2933515</t>
+          <t>SO3118061</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO2933544</t>
+          <t>SO3135433</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO2933564</t>
+          <t>SO3120236</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SO2933592</t>
+          <t>SO3118117</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SO2936795</t>
+          <t>SO3118135</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO2933631</t>
+          <t>SO3118185</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO2933728</t>
+          <t>SO3118386</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SO2933667</t>
+          <t>SO3118551</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SO2933656</t>
+          <t>SO3118524</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SO2936765</t>
+          <t>SO3130074</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SO2933676</t>
+          <t>SO3118770</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SO2960187</t>
+          <t>SO3118862</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SO2935307</t>
+          <t>SO3118800</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SO2933894</t>
+          <t>SO3119023</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SO2933842</t>
+          <t>SO3119387</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SO2933834</t>
+          <t>SO3120441</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SO2933912</t>
+          <t>SO3118954</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SO2934142</t>
+          <t>SO3118900</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SO2965448</t>
+          <t>SO3118955</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SO2934154</t>
+          <t>SO3118930</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SO2934267</t>
+          <t>SO3118952</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SO2934304</t>
+          <t>SO3119030</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SO2934257</t>
+          <t>SO3119114</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SO2934269</t>
+          <t>SO3121628</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SO2934277</t>
+          <t>SO3119063</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SO2934278</t>
+          <t>SO3120846</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SO2934546</t>
+          <t>SO3127473</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SO2934433</t>
+          <t>SO3119183</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SO2934412</t>
+          <t>SO3119219</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SO2934422</t>
+          <t>SO3123753</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SO2934432</t>
+          <t>SO3120182</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SO2935724</t>
+          <t>SO3119310</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SO2934438</t>
+          <t>SO3119365</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SO2934797</t>
+          <t>SO3119469</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SO2934454</t>
+          <t>SO3119444</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SO2934460</t>
+          <t>SO3119528</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SO2934486</t>
+          <t>SO3119460</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SO2934517</t>
+          <t>SO3119489</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SO2934516</t>
+          <t>SO3119497</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SO2934482</t>
+          <t>SO3141091</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SO2935773</t>
+          <t>SO3120563</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SO2934539</t>
+          <t>SO3119968</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SO2935591</t>
+          <t>SO3122954</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SO2934626</t>
+          <t>SO3119987</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SO2934641</t>
+          <t>SO3123818</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SO2934584</t>
+          <t>SO3122878</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SO2934588</t>
+          <t>SO3120139</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SO2934640</t>
+          <t>SO3120185</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SO2934660</t>
+          <t>SO3120888</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SO2934662</t>
+          <t>SO3120214</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SO2934675</t>
+          <t>SO3120247</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SO2934696</t>
+          <t>SO3120616</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SO2935403</t>
+          <t>SO3120237</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SO2937064</t>
+          <t>SO3120323</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SO2934706</t>
+          <t>SO3120426</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SO2934744</t>
+          <t>SO3126681</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SO2934767</t>
+          <t>SO3138376</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SO2934758</t>
+          <t>SO3120349</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SO2934771</t>
+          <t>SO3125022</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SO2934807</t>
+          <t>SO3120373</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SO2934814</t>
+          <t>SO3123153</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SO2943118</t>
+          <t>SO3120732</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SO2934890</t>
+          <t>SO3120631</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SO2935004</t>
+          <t>SO3120808</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SO2934933</t>
+          <t>SO3120647</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SO2938320</t>
+          <t>SO3121505</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SO2934948</t>
+          <t>SO3120727</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SO2934906</t>
+          <t>SO3120784</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SO2934900</t>
+          <t>SO3120960</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SO2934995</t>
+          <t>SO3120998</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SO2934947</t>
+          <t>SO3126957</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SO2934935</t>
+          <t>SO3121154</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SO2934963</t>
+          <t>SO3121169</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SO2935012</t>
+          <t>SO3121288</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SO2935008</t>
+          <t>SO3121384</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SO2935036</t>
+          <t>SO3121287</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SO2935011</t>
+          <t>SO3121267</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SO2935006</t>
+          <t>SO3121302</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SO2935077</t>
+          <t>SO3139668</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SO2935140</t>
+          <t>SO3121314</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SO2935105</t>
+          <t>SO3122090</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SO2971129</t>
+          <t>SO3121391</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SO2935074</t>
+          <t>SO3121427</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SO2948599</t>
+          <t>SO3121380</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SO2935124</t>
+          <t>SO3121389</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SO2935139</t>
+          <t>SO3128660</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SO2935203</t>
+          <t>SO3122343</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SO2935201</t>
+          <t>SO3121565</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SO2935308</t>
+          <t>SO3121563</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SO2935208</t>
+          <t>SO3121564</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SO2935228</t>
+          <t>SO3121709</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SO2935458</t>
+          <t>SO3121562</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SO2935311</t>
+          <t>SO3122664</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SO2937057</t>
+          <t>SO3121603</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SO2935312</t>
+          <t>SO3121661</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SO2935488</t>
+          <t>SO3121961</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SO2935326</t>
+          <t>SO3121702</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SO2955103</t>
+          <t>SO3121703</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SO2935426</t>
+          <t>SO3121884</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SO2935459</t>
+          <t>SO3121803</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SO2935410</t>
+          <t>SO3121704</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SO2935415</t>
+          <t>SO3121930</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SO2935414</t>
+          <t>SO3135021</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SO2935485</t>
+          <t>SO3121900</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SO2939555</t>
+          <t>SO3121896</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SO2935543</t>
+          <t>SO3129702</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SO2935518</t>
+          <t>SO3122037</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SO2935519</t>
+          <t>SO3121960</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SO2937116</t>
+          <t>SO3122002</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SO2935516</t>
+          <t>SO3122018</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SO2935589</t>
+          <t>SO3122004</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SO2935513</t>
+          <t>SO3122154</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SO2937580</t>
+          <t>SO3122114</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SO2943276</t>
+          <t>SO3122193</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SO2935602</t>
+          <t>SO3122298</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SO2935613</t>
+          <t>SO3122318</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SO2935641</t>
+          <t>SO3122320</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SO2935639</t>
+          <t>SO3122349</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SO2935702</t>
+          <t>SO3122449</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SO2935749</t>
+          <t>SO3122478</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SO2935717</t>
+          <t>SO3122538</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SO2937672</t>
+          <t>SO3122641</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SO2935756</t>
+          <t>SO3123355</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SO2939022</t>
+          <t>SO3122734</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SO2935867</t>
+          <t>SO3122762</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SO2935864</t>
+          <t>SO3122779</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SO2935856</t>
+          <t>SO3122855</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SO2935899</t>
+          <t>SO3122856</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SO2935900</t>
+          <t>SO3123311</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SO2935939</t>
+          <t>SO3128665</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SO2936917</t>
+          <t>SO3122863</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SO2935999</t>
+          <t>SO3123757</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SO2967697</t>
+          <t>SO3122955</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SO2965189</t>
+          <t>SO3122957</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SO2935992</t>
+          <t>SO3123036</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SO2991498</t>
+          <t>SO3122953</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SO2936237</t>
+          <t>SO3123035</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SO2936776</t>
+          <t>SO3123031</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SO2936138</t>
+          <t>SO3123120</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SO2936200</t>
+          <t>SO3123163</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SO2936159</t>
+          <t>SO3138926</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SO2936192</t>
+          <t>SO3123169</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SO2936222</t>
+          <t>SO3123256</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SO2936232</t>
+          <t>SO3123203</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SO2945881</t>
+          <t>SO3123211</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SO2936287</t>
+          <t>SO3123344</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SO2936643</t>
+          <t>SO3141524</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SO2936361</t>
+          <t>SO3123505</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SO2938910</t>
+          <t>SO3123613</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SO2936386</t>
+          <t>SO3123468</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SO2936493</t>
+          <t>SO3123509</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SO2937281</t>
+          <t>SO3123551</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SO2936919</t>
+          <t>SO3123558</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SO2936967</t>
+          <t>SO3123634</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SO2936475</t>
+          <t>SO3123604</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SO2936529</t>
+          <t>SO3133611</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SO2936524</t>
+          <t>SO3123632</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SO2936495</t>
+          <t>SO3123706</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SO2936549</t>
+          <t>SO3123912</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SO2936536</t>
+          <t>SO3123843</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SO2936591</t>
+          <t>SO3123835</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SO2936564</t>
+          <t>SO3123857</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SO2936586</t>
+          <t>SO3123863</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SO2938583</t>
+          <t>SO3123873</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SO2936589</t>
+          <t>SO3123881</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SO2937497</t>
+          <t>SO3124078</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SO2936608</t>
+          <t>SO3124027</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SO2999126</t>
+          <t>SO3123968</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SO2936645</t>
+          <t>SO3124004</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SO2936646</t>
+          <t>SO3124056</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SO2943398</t>
+          <t>SO3124131</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SO2936674</t>
+          <t>SO3124103</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SO2945971</t>
+          <t>SO3124257</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SO2936730</t>
+          <t>SO3124325</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SO2936752</t>
+          <t>SO3124411</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SO2936888</t>
+          <t>SO3124490</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SO2936822</t>
+          <t>SO3124410</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SO2936982</t>
+          <t>SO3124365</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SO2936867</t>
+          <t>SO3124389</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SO2936838</t>
+          <t>SO3124403</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SO2936889</t>
+          <t>SO3124487</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SO2936895</t>
+          <t>SO3124414</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SO2937484</t>
+          <t>SO3124466</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SO2936918</t>
+          <t>SO3124470</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SO2940222</t>
+          <t>SO3124611</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SO2936939</t>
+          <t>SO3124601</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SO2936980</t>
+          <t>SO3124610</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SO2936966</t>
+          <t>SO3124571</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SO2937010</t>
+          <t>SO3124622</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SO2937255</t>
+          <t>SO3128656</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SO2937007</t>
+          <t>SO3124705</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SO2937229</t>
+          <t>SO3124954</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SO2937037</t>
+          <t>SO3124896</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SO2937164</t>
+          <t>SO3124652</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SO2937183</t>
+          <t>SO3124672</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SO2937121</t>
+          <t>SO3124953</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SO2937145</t>
+          <t>SO3124919</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SO2992618</t>
+          <t>SO3124986</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SO2938661</t>
+          <t>SO3125005</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SO2940486</t>
+          <t>SO3125047</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SO2939378</t>
+          <t>SO3125045</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SO2937230</t>
+          <t>SO3125088</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SO2937129</t>
+          <t>SO3125127</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SO2937263</t>
+          <t>SO3129010</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SO2937305</t>
+          <t>SO3125284</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SO2937370</t>
+          <t>SO3125296</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SO2937328</t>
+          <t>SO3125283</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SO2939179</t>
+          <t>SO3125282</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SO2937416</t>
+          <t>SO3125253</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SO2979285</t>
+          <t>SO3125375</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SO2937412</t>
+          <t>SO3125474</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SO2937576</t>
+          <t>SO3125447</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SO2937496</t>
+          <t>SO3125523</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SO2995890</t>
+          <t>SO3128201</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SO2937495</t>
+          <t>SO3128559</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SO2937575</t>
+          <t>SO3125589</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SO2937574</t>
+          <t>SO3128127</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SO2939010</t>
+          <t>SO3125644</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SO2937573</t>
+          <t>SO3125682</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SO2937942</t>
+          <t>SO3125697</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SO2937556</t>
+          <t>SO3127153</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SO2938831</t>
+          <t>SO3125755</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SO2937577</t>
+          <t>SO3125757</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SO2937598</t>
+          <t>SO3125855</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SO2937599</t>
+          <t>SO3125859</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SO2937609</t>
+          <t>SO3125748</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SO2938332</t>
+          <t>SO3125754</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SO2937700</t>
+          <t>SO3125899</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SO2937615</t>
+          <t>SO3127353</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SO2937702</t>
+          <t>SO3148624</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SO2937697</t>
+          <t>SO3128032</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SO2937757</t>
+          <t>SO3140901</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SO2937735</t>
+          <t>SO3127012</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SO2937725</t>
+          <t>SO3126039</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SO2937759</t>
+          <t>SO3126251</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SO2937829</t>
+          <t>SO3126305</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SO2939793</t>
+          <t>SO3126287</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SO2937819</t>
+          <t>SO3126297</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SO2937864</t>
+          <t>SO3126338</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SO2937838</t>
+          <t>SO3127652</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SO2939056</t>
+          <t>SO3126407</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SO2937826</t>
+          <t>SO3126406</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SO2937934</t>
+          <t>SO3126360</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SO2937910</t>
+          <t>SO3126632</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SO2937937</t>
+          <t>SO3126581</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SO2938043</t>
+          <t>SO3126675</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SO2938795</t>
+          <t>SO3126639</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SO2965364</t>
+          <t>SO3126689</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SO2938254</t>
+          <t>SO3126700</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SO2938220</t>
+          <t>SO3126729</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SO2938308</t>
+          <t>SO3126750</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SO2939377</t>
+          <t>SO3127986</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SO2938499</t>
+          <t>SO3133117</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SO2940202</t>
+          <t>SO3126894</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SO2938301</t>
+          <t>SO3127360</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SO2939476</t>
+          <t>SO3126816</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SO2948460</t>
+          <t>SO3127046</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SO2938317</t>
+          <t>SO3127260</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SO2938436</t>
+          <t>SO3127301</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SO2938321</t>
+          <t>SO3127197</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SO2938348</t>
+          <t>SO3143008</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SO2938364</t>
+          <t>SO3127560</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SO2949587</t>
+          <t>SO3129099</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SO2938541</t>
+          <t>SO3127430</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO2938500</t>
+          <t>SO3127441</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO2938538</t>
+          <t>SO3127469</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SO2938590</t>
+          <t>SO3127476</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SO2938521</t>
+          <t>SO3127613</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SO2938543</t>
+          <t>SO3127507</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SO2938610</t>
+          <t>SO3127523</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SO2938554</t>
+          <t>SO3127561</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SO2938574</t>
+          <t>SO3127535</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SO2938821</t>
+          <t>SO3127604</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SO2938702</t>
+          <t>SO3127607</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SO2938701</t>
+          <t>SO3127693</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SO2938757</t>
+          <t>SO3127615</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SO2938713</t>
+          <t>SO3127848</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SO2938729</t>
+          <t>SO3127745</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SO2938728</t>
+          <t>SO3127757</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SO2938744</t>
+          <t>SO3127661</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SO2938745</t>
+          <t>SO3127754</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SO2939313</t>
+          <t>SO3127747</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SO2938811</t>
+          <t>SO3127790</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SO2938774</t>
+          <t>SO3127882</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SO2938804</t>
+          <t>SO3137882</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SO2938924</t>
+          <t>SO3127946</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SO2939425</t>
+          <t>SO3128752</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SO2938895</t>
+          <t>SO3128056</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SO2938888</t>
+          <t>SO3127984</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SO2938951</t>
+          <t>SO3128994</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SO2938940</t>
+          <t>SO3128034</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SO2938949</t>
+          <t>SO3128203</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SO2938933</t>
+          <t>SO3128925</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SO2938952</t>
+          <t>SO3128175</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SO2938959</t>
+          <t>SO3128164</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SO2939009</t>
+          <t>SO3128224</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SO2938960</t>
+          <t>SO3128225</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SO2939011</t>
+          <t>SO3128250</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SO2939021</t>
+          <t>SO3129680</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SO2939023</t>
+          <t>SO3128272</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SO2939046</t>
+          <t>SO3128288</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SO2939059</t>
+          <t>SO3128754</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SO2939067</t>
+          <t>SO3128428</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SO2966984</t>
+          <t>SO3128528</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SO2939094</t>
+          <t>SO3128541</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SO2939113</t>
+          <t>SO3128650</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SO2939096</t>
+          <t>SO3128809</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SO2939173</t>
+          <t>SO3128906</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SO2939205</t>
+          <t>SO3129017</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SO2939300</t>
+          <t>SO3129088</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SO2942427</t>
+          <t>SO3129274</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SO2945018</t>
+          <t>SO3129327</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SO2981742</t>
+          <t>SO3129389</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SO2939302</t>
+          <t>SO3129482</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SO2939293</t>
+          <t>SO3129469</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SO2941187</t>
+          <t>SO3129504</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SO2939305</t>
+          <t>SO3129787</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SO2939303</t>
+          <t>SO3129704</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SO2939351</t>
+          <t>SO3129641</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SO2939352</t>
+          <t>SO3129764</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SO2939376</t>
+          <t>SO3129767</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SO2939408</t>
+          <t>SO3129895</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SO2939434</t>
+          <t>SO3129961</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SO2940773</t>
+          <t>SO3129957</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SO2939457</t>
+          <t>SO3129908</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SO2939466</t>
+          <t>SO3129887</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SO2939467</t>
+          <t>SO3130018</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SO2939493</t>
+          <t>SO3130026</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SO2939492</t>
+          <t>SO3130027</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SO2939491</t>
+          <t>SO3130024</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SO2939570</t>
+          <t>SO3130030</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SO2939571</t>
+          <t>SO3130058</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SO2939557</t>
+          <t>SO3130181</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SO2939587</t>
+          <t>SO3130271</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SO2946070</t>
+          <t>SO3130132</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SO2939682</t>
+          <t>SO3130227</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SO2955989</t>
+          <t>SO3130241</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SO2939788</t>
+          <t>SO3130239</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SO2939790</t>
+          <t>SO3130415</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SO2939815</t>
+          <t>SO3130400</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SO2943474</t>
+          <t>SO3130502</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SO2939828</t>
+          <t>SO3148340</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SO2940071</t>
+          <t>SO3130605</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SO2963547</t>
+          <t>SO3130670</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SO2939897</t>
+          <t>SO3130635</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SO2939867</t>
+          <t>SO3130893</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SO2940061</t>
+          <t>SO3132220</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SO2940066</t>
+          <t>SO3130748</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SO2940080</t>
+          <t>SO3130785</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SO2940165</t>
+          <t>SO3130981</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SO2940325</t>
+          <t>SO3131016</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SO2940219</t>
+          <t>SO3133294</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SO2940719</t>
+          <t>SO3131061</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SO2940247</t>
+          <t>SO3130932</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SO2941398</t>
+          <t>SO3131032</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SO2940354</t>
+          <t>SO3131129</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SO2940364</t>
+          <t>SO3131251</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SO2940373</t>
+          <t>SO3131263</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SO2950711</t>
+          <t>SO3131308</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SO2940388</t>
+          <t>SO3131345</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SO2942654</t>
+          <t>SO3131355</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SO2940427</t>
+          <t>SO3131392</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SO2940429</t>
+          <t>SO3136136</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SO2940442</t>
+          <t>SO3144180</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SO2940457</t>
+          <t>SO3132675</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SO2940456</t>
+          <t>SO3131650</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SO2940469</t>
+          <t>SO3131697</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SO2940528</t>
+          <t>SO3132430</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SO2941229</t>
+          <t>SO3131739</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SO2940488</t>
+          <t>SO3131794</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SO2940562</t>
+          <t>SO3131805</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SO2947791</t>
+          <t>SO3131867</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SO2946718</t>
+          <t>SO3131909</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SO2940609</t>
+          <t>SO3132071</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SO2940576</t>
+          <t>SO3131943</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SO2940578</t>
+          <t>SO3134485</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SO2942166</t>
+          <t>SO3131992</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SO2940638</t>
+          <t>SO3134465</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SO2940556</t>
+          <t>SO3132034</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SO2940575</t>
+          <t>SO3132051</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SO2940630</t>
+          <t>SO3132095</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SO2940687</t>
+          <t>SO3132223</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SO2940659</t>
+          <t>SO3132306</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SO2943088</t>
+          <t>SO3135912</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>SO2940686</t>
+          <t>SO3135936</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>SO2940700</t>
+          <t>SO3132328</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SO3001230</t>
+          <t>SO3132481</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>SO2940766</t>
+          <t>SO3137433</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>SO2940732</t>
+          <t>SO3132418</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>SO2940735</t>
+          <t>SO3132805</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>SO2940764</t>
+          <t>SO3132500</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SO2940824</t>
+          <t>SO3132605</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SO2940837</t>
+          <t>SO3142897</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SO2940783</t>
+          <t>SO3132482</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SO2940872</t>
+          <t>SO3132602</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SO2940814</t>
+          <t>SO3132714</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>SO2940847</t>
+          <t>SO3132777</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>SO2940838</t>
+          <t>SO3132895</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>SO2940959</t>
+          <t>SO3132890</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>SO2940868</t>
+          <t>SO3132953</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>SO2940846</t>
+          <t>SO3132992</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SO2940854</t>
+          <t>SO3133005</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>SO2941231</t>
+          <t>SO3133052</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>SO2940877</t>
+          <t>SO3133282</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>SO2940903</t>
+          <t>SO3133229</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>SO2941055</t>
+          <t>SO3133586</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>SO2940932</t>
+          <t>SO3133247</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>SO2941032</t>
+          <t>SO3133334</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>SO2941080</t>
+          <t>SO3133406</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SO2971127</t>
+          <t>SO3133612</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>SO2941143</t>
+          <t>SO3133594</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>SO2941163</t>
+          <t>SO3133660</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>SO2941185</t>
+          <t>SO3133766</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SO2941176</t>
+          <t>SO3133709</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SO2941186</t>
+          <t>SO3133719</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>SO2943382</t>
+          <t>SO3133739</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>SO2941210</t>
+          <t>SO3133848</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>SO2941211</t>
+          <t>SO3134406</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>SO2941280</t>
+          <t>SO3133826</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>SO2941279</t>
+          <t>SO3133871</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SO2941343</t>
+          <t>SO3133917</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>SO2941323</t>
+          <t>SO3133916</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>SO2941321</t>
+          <t>SO3134042</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>SO2941389</t>
+          <t>SO3134171</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SO2941349</t>
+          <t>SO3134199</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SO2941404</t>
+          <t>SO3134676</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SO2941525</t>
+          <t>SO3134395</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SO2941519</t>
+          <t>SO3134382</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>SO2941537</t>
+          <t>SO3134562</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SO2941565</t>
+          <t>SO3134463</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>SO2941626</t>
+          <t>SO3134522</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>SO2941641</t>
+          <t>SO3134524</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>SO2941702</t>
+          <t>SO3134582</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>SO2941762</t>
+          <t>SO3134580</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SO2941878</t>
+          <t>SO3134708</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>SO2942174</t>
+          <t>SO3134629</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>SO2941838</t>
+          <t>SO3134771</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>SO2962760</t>
+          <t>SO3134796</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>SO2941862</t>
+          <t>SO3134877</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SO2941882</t>
+          <t>SO3134794</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>SO2942163</t>
+          <t>SO3134875</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>SO2941938</t>
+          <t>SO3134973</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>SO2941899</t>
+          <t>SO3134918</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>SO2941950</t>
+          <t>SO3134952</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>SO2941937</t>
+          <t>SO3135492</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>SO2942850</t>
+          <t>SO3134976</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SO2941995</t>
+          <t>SO3134938</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>SO2942032</t>
+          <t>SO3134971</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>SO2941970</t>
+          <t>SO3136914</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>SO2942019</t>
+          <t>SO3135880</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>SO2942055</t>
+          <t>SO3135197</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>SO2942128</t>
+          <t>SO3137054</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>SO2942109</t>
+          <t>SO3135372</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>SO2942161</t>
+          <t>SO3135400</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SO2942203</t>
+          <t>SO3135303</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>SO2942211</t>
+          <t>SO3135399</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SO2942193</t>
+          <t>SO3135535</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>SO2942243</t>
+          <t>SO3135580</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SO2942323</t>
+          <t>SO3135494</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>SO2942266</t>
+          <t>SO3135495</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>SO2942277</t>
+          <t>SO3135541</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SO2942296</t>
+          <t>SO3135532</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SO2942267</t>
+          <t>SO3136002</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>SO2942282</t>
+          <t>SO3136118</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>SO2942278</t>
+          <t>SO3135999</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>SO2942310</t>
+          <t>SO3136030</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>SO2942390</t>
+          <t>SO3136094</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>SO2942374</t>
+          <t>SO3136158</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>SO2942425</t>
+          <t>SO3136683</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>SO2942405</t>
+          <t>SO3136362</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SO2942415</t>
+          <t>SO3136359</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>SO2942441</t>
+          <t>SO3136411</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>SO2942439</t>
+          <t>SO3136357</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>SO3002213</t>
+          <t>SO3136433</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SO2942476</t>
+          <t>SO3136519</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>SO2942488</t>
+          <t>SO3136361</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>SO2943662</t>
+          <t>SO3136343</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>SO2942497</t>
+          <t>SO3136410</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>SO2942498</t>
+          <t>SO3141628</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>SO2942532</t>
+          <t>SO3136483</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>SO2942513</t>
+          <t>SO3136432</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>SO2942518</t>
+          <t>SO3136505</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>SO2942508</t>
+          <t>SO3136517</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>SO2942528</t>
+          <t>SO3136682</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SO2992942</t>
+          <t>SO3136651</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>SO3003248</t>
+          <t>SO3139562</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>SO2942601</t>
+          <t>SO3136712</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SO2942622</t>
+          <t>SO3136875</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>SO2942652</t>
+          <t>SO3137436</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>SO2942724</t>
+          <t>SO3143111</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SO2942653</t>
+          <t>SO3136836</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SO2942668</t>
+          <t>SO3137501</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>SO2942672</t>
+          <t>SO3136912</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>SO2942684</t>
+          <t>SO3136991</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>SO2957293</t>
+          <t>SO3136949</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>SO2942740</t>
+          <t>SO3137016</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>SO2942760</t>
+          <t>SO3137565</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>SO2942764</t>
+          <t>SO3137173</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>SO2942762</t>
+          <t>SO3138862</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SO2946233</t>
+          <t>SO3137746</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>SO2942827</t>
+          <t>SO3137739</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>SO2942759</t>
+          <t>SO3143604</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>SO2942911</t>
+          <t>SO3140664</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SO2946308</t>
+          <t>SO3138079</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>SO2942824</t>
+          <t>SO3138132</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>SO2942884</t>
+          <t>SO3138215</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>SO2942851</t>
+          <t>SO3138226</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>SO2942848</t>
+          <t>SO3138241</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SO2942909</t>
+          <t>SO3138252</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>SO2942894</t>
+          <t>SO3138312</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>SO2942892</t>
+          <t>SO3138313</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>SO2942934</t>
+          <t>SO3138377</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>SO2942967</t>
+          <t>SO3138368</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SO2943008</t>
+          <t>SO3138415</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SO2942961</t>
+          <t>SO3138525</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>SO2945317</t>
+          <t>SO3138764</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>SO2942959</t>
+          <t>SO3138623</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SO2942968</t>
+          <t>SO3138847</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>SO2943034</t>
+          <t>SO3138656</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>SO2943007</t>
+          <t>SO3138967</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>SO2943035</t>
+          <t>SO3139452</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>SO2943063</t>
+          <t>SO3138947</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>SO2943164</t>
+          <t>SO3138999</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SO2943089</t>
+          <t>SO3139070</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>SO2943120</t>
+          <t>SO3139274</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>SO2944019</t>
+          <t>SO3139482</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>SO2943150</t>
+          <t>SO3142232</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>SO2943393</t>
+          <t>SO3139327</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>SO2943388</t>
+          <t>SO3139451</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SO2943399</t>
+          <t>SO3139430</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>SO2943405</t>
+          <t>SO3139484</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>SO3004853</t>
+          <t>SO3139541</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>SO2943414</t>
+          <t>SO3139638</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>SO2943479</t>
+          <t>SO3139592</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>SO2943579</t>
+          <t>SO3139876</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>SO2943649</t>
+          <t>SO3139943</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>SO2943648</t>
+          <t>SO3139845</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>SO2943689</t>
+          <t>SO3139881</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>SO2943657</t>
+          <t>SO3141431</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>SO2943781</t>
+          <t>SO3140065</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>SO2943886</t>
+          <t>SO3141083</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>SO2943842</t>
+          <t>SO3140139</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>SO2943909</t>
+          <t>SO3140156</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>SO2959248</t>
+          <t>SO3140873</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>SO2962049</t>
+          <t>SO3140235</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>SO2943987</t>
+          <t>SO3140244</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>SO2943910</t>
+          <t>SO3140449</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>SO2943902</t>
+          <t>SO3140723</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>SO2943985</t>
+          <t>SO3140663</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>SO2944072</t>
+          <t>SO3140636</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>SO2944139</t>
+          <t>SO3140695</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>SO2944047</t>
+          <t>SO3140738</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>SO2944130</t>
+          <t>SO3140792</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>SO2944140</t>
+          <t>SO3140962</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>SO2944311</t>
+          <t>SO3141000</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>SO2944279</t>
+          <t>SO3141010</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>SO2944334</t>
+          <t>SO3141072</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>SO2944310</t>
+          <t>SO3141113</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>SO2944449</t>
+          <t>SO3141139</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>SO2944313</t>
+          <t>SO3141146</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>SO2944376</t>
+          <t>SO3141225</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>SO2944379</t>
+          <t>SO3141257</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>SO2944450</t>
+          <t>SO3141218</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>SO2944475</t>
+          <t>SO3141255</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>SO2944502</t>
+          <t>SO3141434</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>SO2952958</t>
+          <t>SO3141845</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>SO2944553</t>
+          <t>SO3141843</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>SO2944562</t>
+          <t>SO3141931</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>SO2944552</t>
+          <t>SO3142118</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>SO2944595</t>
+          <t>SO3144215</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>SO2944663</t>
+          <t>SO3145701</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>SO2944611</t>
+          <t>SO3142229</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>SO2944659</t>
+          <t>SO3142256</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>SO2944660</t>
+          <t>SO3142304</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>SO3001043</t>
+          <t>SO3142361</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>SO2944698</t>
+          <t>SO3142477</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>SO2944694</t>
+          <t>SO3142849</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>SO2944802</t>
+          <t>SO3142396</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>SO2944815</t>
+          <t>SO3142567</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>SO2944890</t>
+          <t>SO3142751</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>SO2944769</t>
+          <t>SO3142812</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>SO2944803</t>
+          <t>SO3142850</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>SO2944816</t>
+          <t>SO3143061</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>SO2944841</t>
+          <t>SO3142924</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>SO2948655</t>
+          <t>SO3142933</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>SO2944893</t>
+          <t>SO3142939</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>SO2944987</t>
+          <t>SO3142978</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>SO2944974</t>
+          <t>SO3143117</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>SO2944989</t>
+          <t>SO3143156</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>SO2981253</t>
+          <t>SO3143192</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>SO2951921</t>
+          <t>SO3143402</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>SO2944991</t>
+          <t>SO3143620</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>SO2946196</t>
+          <t>SO3143597</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>SO2944976</t>
+          <t>SO3143613</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>SO2945043</t>
+          <t>SO3143815</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>SO2945089</t>
+          <t>SO3143946</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>SO2945111</t>
+          <t>SO3143978</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>SO2945102</t>
+          <t>SO3144022</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>SO2945065</t>
+          <t>SO3148154</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>SO2945077</t>
+          <t>SO3144298</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>SO2945679</t>
+          <t>SO3144279</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>SO2945680</t>
+          <t>SO3144382</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>SO2945190</t>
+          <t>SO3144295</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>SO2945133</t>
+          <t>SO3144439</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>SO2945191</t>
+          <t>SO3144670</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>SO2945331</t>
+          <t>SO3144799</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>SO2945214</t>
+          <t>SO3144835</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>SO2945316</t>
+          <t>SO3144898</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>SO2945355</t>
+          <t>SO3144877</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>SO2949981</t>
+          <t>SO3144935</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>SO2945471</t>
+          <t>SO3145080</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>SO2946005</t>
+          <t>SO3145677</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>SO2946879</t>
+          <t>SO3145036</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>SO2945608</t>
+          <t>SO3145053</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>SO2945969</t>
+          <t>SO3145168</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>SO2982926</t>
+          <t>SO3145147</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>SO2945813</t>
+          <t>SO3146408</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>SO2945787</t>
+          <t>SO3145258</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>SO2945841</t>
+          <t>SO3145257</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>SO2945970</t>
+          <t>SO3145277</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>SO2946003</t>
+          <t>SO3145438</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>SO2946031</t>
+          <t>SO3145457</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>SO2946030</t>
+          <t>SO3145651</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>SO2946127</t>
+          <t>SO3145776</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>SO2946080</t>
+          <t>SO3145832</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>SO2948098</t>
+          <t>SO3146618</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>SO2947097</t>
+          <t>SO3146750</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>SO2946157</t>
+          <t>SO3146747</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>SO2947606</t>
+          <t>SO3146741</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>SO2953328</t>
+          <t>SO3146826</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>SO2946244</t>
+          <t>SO3147904</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>SO2946290</t>
+          <t>SO3147522</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>SO2946302</t>
+          <t>SO3148469</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>SO2946559</t>
+          <t>SO3147656</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>SO2946388</t>
+          <t>SO3148244</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>SO2946475</t>
+          <t>SO3148516</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>SO2946605</t>
+          <t>SO3148558</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>SO2946519</t>
+          <t>SO3148610</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>SO2946477</t>
+          <t>SO3148884</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>SO2946507</t>
+          <t>SO3149080</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>SO2948175</t>
+          <t>SO3149454</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>SO2946490</t>
+          <t>SO3149998</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>SO2946532</t>
+          <t>SO3150214</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>SO2946576</t>
+          <t>SO3150283</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>SO2946632</t>
+          <t>SO3150368</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>SO2946892</t>
+          <t>SO3150546</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>SO2946929</t>
+          <t>SO3150645</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>SO2946970</t>
+          <t>SO2630445</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>SO2947955</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>SO2947056</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>SO2947112</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>SO2947009</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>SO2947026</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>SO2947020</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>SO2947159</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>SO2947272</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>SO2947098</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>SO2947195</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>SO2947228</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>SO2947243</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>SO2947292</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>SO2987391</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>SO2947305</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>SO2947396</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>SO2947390</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>SO2947416</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>SO2947308</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>SO2947391</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>SO2947431</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>SO2947467</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>SO2947507</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>SO2951104</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>SO2947743</t>
-        </is>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>SO2947682</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>SO2947685</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>SO2947814</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>SO2979079</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>SO2947974</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>SO2948019</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>SO2948049</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>SO2948236</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>SO2947983</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>SO2948134</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>SO2950461</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>SO2948118</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>SO2948160</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>SO2948205</t>
-        </is>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>SO2948159</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>SO2948204</t>
-        </is>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>SO2948273</t>
-        </is>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>SO2948177</t>
-        </is>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>SO2948237</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>SO2948250</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>SO2948276</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>SO2948301</t>
-        </is>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>SO2948300</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>SO2948264</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>SO2950672</t>
-        </is>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>SO2948331</t>
-        </is>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" t="inlineStr">
-        <is>
-          <t>SO2948698</t>
-        </is>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" t="inlineStr">
-        <is>
-          <t>SO2950462</t>
-        </is>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" t="inlineStr">
-        <is>
-          <t>SO2961992</t>
-        </is>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" t="inlineStr">
-        <is>
-          <t>SO2949336</t>
-        </is>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" t="inlineStr">
-        <is>
-          <t>SO2948653</t>
-        </is>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" t="inlineStr">
-        <is>
-          <t>SO2948684</t>
-        </is>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" t="inlineStr">
-        <is>
-          <t>SO2948682</t>
-        </is>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" t="inlineStr">
-        <is>
-          <t>SO2964872</t>
-        </is>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" t="inlineStr">
-        <is>
-          <t>SO2948654</t>
-        </is>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" t="inlineStr">
-        <is>
-          <t>SO2948699</t>
-        </is>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" t="inlineStr">
-        <is>
-          <t>SO2948739</t>
-        </is>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" t="inlineStr">
-        <is>
-          <t>SO2948670</t>
-        </is>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" t="inlineStr">
-        <is>
-          <t>SO2948718</t>
-        </is>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" t="inlineStr">
-        <is>
-          <t>SO2950041</t>
-        </is>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" t="inlineStr">
-        <is>
-          <t>SO2948879</t>
-        </is>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" t="inlineStr">
-        <is>
-          <t>SO2948878</t>
-        </is>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" t="inlineStr">
-        <is>
-          <t>SO2948822</t>
-        </is>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" t="inlineStr">
-        <is>
-          <t>SO2948926</t>
-        </is>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" t="inlineStr">
-        <is>
-          <t>SO2948950</t>
-        </is>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" t="inlineStr">
-        <is>
-          <t>SO2949035</t>
-        </is>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" t="inlineStr">
-        <is>
-          <t>SO2949124</t>
-        </is>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" t="inlineStr">
-        <is>
-          <t>SO2949122</t>
-        </is>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
-          <t>SO2949125</t>
-        </is>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" t="inlineStr">
-        <is>
-          <t>SO2949127</t>
-        </is>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="inlineStr">
-        <is>
-          <t>SO2949219</t>
-        </is>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>SO2949159</t>
-        </is>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
-          <t>SO2949126</t>
-        </is>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="inlineStr">
-        <is>
-          <t>SO2956023</t>
-        </is>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>SO2949255</t>
-        </is>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" t="inlineStr">
-        <is>
-          <t>SO2949227</t>
-        </is>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" t="inlineStr">
-        <is>
-          <t>SO2949275</t>
-        </is>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" t="inlineStr">
-        <is>
-          <t>SO2949271</t>
-        </is>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>SO2949260</t>
-        </is>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>SO2949257</t>
-        </is>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" t="inlineStr">
-        <is>
-          <t>SO2949367</t>
-        </is>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" t="inlineStr">
-        <is>
-          <t>SO2949335</t>
-        </is>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" t="inlineStr">
-        <is>
-          <t>SO2949277</t>
-        </is>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" t="inlineStr">
-        <is>
-          <t>SO2990241</t>
-        </is>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
-          <t>SO2949338</t>
-        </is>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" t="inlineStr">
-        <is>
-          <t>SO2949351</t>
-        </is>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" t="inlineStr">
-        <is>
-          <t>SO2949414</t>
-        </is>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>SO2949468</t>
-        </is>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" t="inlineStr">
-        <is>
-          <t>SO2950119</t>
-        </is>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>SO2949431</t>
-        </is>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>SO2949435</t>
-        </is>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="inlineStr">
-        <is>
-          <t>SO2949497</t>
-        </is>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" t="inlineStr">
-        <is>
-          <t>SO2949540</t>
-        </is>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" t="inlineStr">
-        <is>
-          <t>SO2949437</t>
-        </is>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" t="inlineStr">
-        <is>
-          <t>SO2949598</t>
-        </is>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t>SO2952687</t>
-        </is>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t>SO2949864</t>
-        </is>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" t="inlineStr">
-        <is>
-          <t>SO2949631</t>
-        </is>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>SO2949661</t>
-        </is>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>SO2949686</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>SO2963389</t>
-        </is>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>SO2950010</t>
-        </is>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>SO2957657</t>
-        </is>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>SO2950043</t>
-        </is>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" t="inlineStr">
-        <is>
-          <t>SO2950135</t>
-        </is>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>SO2954395</t>
-        </is>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>SO2950164</t>
-        </is>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>SO2950771</t>
-        </is>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>SO2950260</t>
-        </is>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>SO2950198</t>
-        </is>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>SO2950223</t>
-        </is>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>SO2972367</t>
-        </is>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>SO2950249</t>
-        </is>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>SO2950281</t>
-        </is>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>SO2950317</t>
-        </is>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>SO2950419</t>
-        </is>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>SO2950354</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>SO2950372</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>SO2950395</t>
-        </is>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>SO2950371</t>
-        </is>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>SO2950434</t>
-        </is>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>SO2950487</t>
-        </is>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>SO2950590</t>
-        </is>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>SO2950588</t>
-        </is>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>SO2950613</t>
-        </is>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>SO2950611</t>
-        </is>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>SO2950624</t>
-        </is>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>SO2950635</t>
-        </is>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>SO2950695</t>
-        </is>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>SO2950773</t>
-        </is>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>SO2952937</t>
-        </is>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>SO2950805</t>
-        </is>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>SO2950899</t>
-        </is>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="inlineStr">
-        <is>
-          <t>SO2951542</t>
-        </is>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>SO2951121</t>
-        </is>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>SO2951102</t>
-        </is>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="inlineStr">
-        <is>
-          <t>SO2951107</t>
-        </is>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>SO2951105</t>
-        </is>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>SO2951101</t>
-        </is>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>SO2951122</t>
-        </is>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>SO2951129</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>SO2951202</t>
-        </is>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="inlineStr">
-        <is>
-          <t>SO2951232</t>
-        </is>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="inlineStr">
-        <is>
-          <t>SO2951172</t>
-        </is>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" t="inlineStr">
-        <is>
-          <t>SO2951234</t>
-        </is>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="inlineStr">
-        <is>
-          <t>SO2951318</t>
-        </is>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" t="inlineStr">
-        <is>
-          <t>SO2951282</t>
-        </is>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>SO2951397</t>
-        </is>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>SO2951833</t>
-        </is>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>SO2951337</t>
-        </is>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>SO2951334</t>
-        </is>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>SO2995583</t>
-        </is>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>SO2951724</t>
-        </is>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="inlineStr">
-        <is>
-          <t>SO2963427</t>
-        </is>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="inlineStr">
-        <is>
-          <t>SO2952441</t>
-        </is>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>SO2951760</t>
-        </is>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>SO2951748</t>
-        </is>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>SO2951769</t>
-        </is>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="inlineStr">
-        <is>
-          <t>SO2951749</t>
-        </is>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
-          <t>SO2951889</t>
-        </is>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>SO2951882</t>
-        </is>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>SO2951973</t>
-        </is>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>SO2952026</t>
-        </is>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>SO2951997</t>
-        </is>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
-          <t>SO2952027</t>
-        </is>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>SO2952207</t>
-        </is>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>SO2952083</t>
-        </is>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>SO2952097</t>
-        </is>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>SO2952098</t>
-        </is>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>SO2952136</t>
-        </is>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>SO2968299</t>
-        </is>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>SO2952211</t>
-        </is>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>SO2952184</t>
-        </is>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>SO2952205</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>SO2952157</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>SO2952218</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>SO2952282</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>SO2952208</t>
-        </is>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>SO2952233</t>
-        </is>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>SO2952281</t>
-        </is>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>SO2952286</t>
-        </is>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>SO2952522</t>
-        </is>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>SO2952327</t>
-        </is>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>SO2952287</t>
-        </is>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>SO2952316</t>
-        </is>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>SO2952355</t>
-        </is>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>SO2952330</t>
-        </is>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>SO2952326</t>
-        </is>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>SO2952397</t>
+          <t>SO3096697</t>
         </is>
       </c>
     </row>
